--- a/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dql/casegroup1/mysql_dql_cases1_btree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dql/casegroup1/mysql_dql_cases1_btree.xlsx
@@ -21195,8 +21195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1765" workbookViewId="0">
-      <selection activeCell="J1798" sqref="J1798"/>
+    <sheetView tabSelected="1" topLeftCell="F1765" workbookViewId="0">
+      <selection activeCell="J1796" sqref="J1796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dql/casegroup1/mysql_dql_cases1_btree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dql/casegroup1/mysql_dql_cases1_btree.xlsx
@@ -21195,8 +21195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1765" workbookViewId="0">
-      <selection activeCell="J1796" sqref="J1796"/>
+    <sheetView tabSelected="1" topLeftCell="A1765" workbookViewId="0">
+      <selection activeCell="C1800" sqref="C1800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -71908,7 +71908,7 @@
         <v>5976</v>
       </c>
       <c r="B1794" s="7" t="s">
-        <v>34</v>
+        <v>2906</v>
       </c>
       <c r="C1794" s="7" t="s">
         <v>5965</v>
@@ -71941,7 +71941,7 @@
         <v>5977</v>
       </c>
       <c r="B1795" s="7" t="s">
-        <v>34</v>
+        <v>2906</v>
       </c>
       <c r="C1795" s="7" t="s">
         <v>5971</v>
@@ -71974,7 +71974,7 @@
         <v>5978</v>
       </c>
       <c r="B1796" s="7" t="s">
-        <v>34</v>
+        <v>2906</v>
       </c>
       <c r="C1796" s="7" t="s">
         <v>5975</v>

--- a/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dql/casegroup1/mysql_dql_cases1_btree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dql/casegroup1/mysql_dql_cases1_btree.xlsx
@@ -21195,8 +21195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1765" workbookViewId="0">
-      <selection activeCell="C1800" sqref="C1800"/>
+    <sheetView tabSelected="1" topLeftCell="A1594" workbookViewId="0">
+      <selection activeCell="C1613" sqref="C1613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -66203,7 +66203,7 @@
         <v>5022</v>
       </c>
       <c r="B1609" s="8" t="s">
-        <v>34</v>
+        <v>2906</v>
       </c>
       <c r="C1609" s="1" t="s">
         <v>3003</v>

--- a/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dql/casegroup1/mysql_dql_cases1_btree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dql/casegroup1/mysql_dql_cases1_btree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15604" uniqueCount="5984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15578" uniqueCount="5984">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21195,8 +21195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1759" workbookViewId="0">
-      <selection activeCell="I1788" sqref="I1788"/>
+    <sheetView tabSelected="1" topLeftCell="A1549" workbookViewId="0">
+      <selection activeCell="H1566" sqref="H1566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -64132,9 +64132,7 @@
       <c r="G1546" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="H1546" s="1" t="s">
-        <v>4957</v>
-      </c>
+      <c r="H1546" s="9"/>
       <c r="I1546" s="1" t="s">
         <v>2759</v>
       </c>
@@ -64167,9 +64165,7 @@
       <c r="G1547" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="H1547" s="1" t="s">
-        <v>4957</v>
-      </c>
+      <c r="H1547" s="9"/>
       <c r="I1547" s="1" t="s">
         <v>2760</v>
       </c>
@@ -64234,9 +64230,7 @@
       <c r="G1549" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="H1549" s="1" t="s">
-        <v>4960</v>
-      </c>
+      <c r="H1549" s="9"/>
       <c r="I1549" s="1" t="s">
         <v>2769</v>
       </c>
@@ -64269,9 +64263,7 @@
       <c r="G1550" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="H1550" s="1" t="s">
-        <v>4960</v>
-      </c>
+      <c r="H1550" s="9"/>
       <c r="I1550" s="1" t="s">
         <v>2770</v>
       </c>
@@ -64368,9 +64360,7 @@
       <c r="G1553" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="H1553" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1553" s="9"/>
       <c r="I1553" s="1" t="s">
         <v>2789</v>
       </c>
@@ -64403,9 +64393,7 @@
       <c r="G1554" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="H1554" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1554" s="9"/>
       <c r="I1554" s="1" t="s">
         <v>2790</v>
       </c>
@@ -64438,9 +64426,7 @@
       <c r="G1555" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="H1555" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1555" s="9"/>
       <c r="I1555" s="1" t="s">
         <v>2791</v>
       </c>
@@ -64473,9 +64459,7 @@
       <c r="G1556" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="H1556" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1556" s="9"/>
       <c r="I1556" s="1" t="s">
         <v>2792</v>
       </c>
@@ -64508,9 +64492,7 @@
       <c r="G1557" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="H1557" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1557" s="9"/>
       <c r="I1557" s="1" t="s">
         <v>2793</v>
       </c>
@@ -64575,9 +64557,7 @@
       <c r="G1559" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="H1559" s="1" t="s">
-        <v>4970</v>
-      </c>
+      <c r="H1559" s="9"/>
       <c r="I1559" s="1" t="s">
         <v>2801</v>
       </c>
@@ -64610,9 +64590,7 @@
       <c r="G1560" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="H1560" s="1" t="s">
-        <v>4970</v>
-      </c>
+      <c r="H1560" s="9"/>
       <c r="I1560" s="1" t="s">
         <v>2803</v>
       </c>
@@ -64645,9 +64623,7 @@
       <c r="G1561" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="H1561" s="1" t="s">
-        <v>4970</v>
-      </c>
+      <c r="H1561" s="9"/>
       <c r="I1561" s="1" t="s">
         <v>2804</v>
       </c>
@@ -64680,9 +64656,7 @@
       <c r="G1562" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="H1562" s="1" t="s">
-        <v>4970</v>
-      </c>
+      <c r="H1562" s="9"/>
       <c r="I1562" s="1" t="s">
         <v>2805</v>
       </c>
@@ -64747,9 +64721,7 @@
       <c r="G1564" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="H1564" s="1" t="s">
-        <v>4975</v>
-      </c>
+      <c r="H1564" s="9"/>
       <c r="I1564" s="1" t="s">
         <v>2812</v>
       </c>
@@ -64782,9 +64754,7 @@
       <c r="G1565" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="H1565" s="1" t="s">
-        <v>4975</v>
-      </c>
+      <c r="H1565" s="9"/>
       <c r="I1565" s="1" t="s">
         <v>2813</v>
       </c>
@@ -64849,9 +64819,7 @@
       <c r="G1567" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="H1567" s="1" t="s">
-        <v>4978</v>
-      </c>
+      <c r="H1567" s="9"/>
       <c r="I1567" s="1" t="s">
         <v>2819</v>
       </c>
@@ -64884,9 +64852,7 @@
       <c r="G1568" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="H1568" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1568" s="9"/>
       <c r="I1568" s="1" t="s">
         <v>2822</v>
       </c>
@@ -64919,9 +64885,7 @@
       <c r="G1569" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="H1569" s="1" t="s">
-        <v>4957</v>
-      </c>
+      <c r="H1569" s="9"/>
       <c r="I1569" s="1" t="s">
         <v>2830</v>
       </c>
@@ -64954,9 +64918,7 @@
       <c r="G1570" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="H1570" s="1" t="s">
-        <v>4960</v>
-      </c>
+      <c r="H1570" s="9"/>
       <c r="I1570" s="1" t="s">
         <v>2833</v>
       </c>
@@ -64989,9 +64951,7 @@
       <c r="G1571" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="H1571" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1571" s="9"/>
       <c r="I1571" s="1" t="s">
         <v>2835</v>
       </c>
@@ -65024,9 +64984,7 @@
       <c r="G1572" s="1" t="s">
         <v>2836</v>
       </c>
-      <c r="H1572" s="1" t="s">
-        <v>4963</v>
-      </c>
+      <c r="H1572" s="9"/>
       <c r="I1572" s="1" t="s">
         <v>2837</v>
       </c>
@@ -65059,9 +65017,7 @@
       <c r="G1573" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="H1573" s="1" t="s">
-        <v>4970</v>
-      </c>
+      <c r="H1573" s="9"/>
       <c r="I1573" s="1" t="s">
         <v>2839</v>
       </c>
@@ -65094,9 +65050,7 @@
       <c r="G1574" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="H1574" s="1" t="s">
-        <v>4975</v>
-      </c>
+      <c r="H1574" s="9"/>
       <c r="I1574" s="1" t="s">
         <v>2841</v>
       </c>
@@ -65129,9 +65083,7 @@
       <c r="G1575" s="1" t="s">
         <v>2842</v>
       </c>
-      <c r="H1575" s="1" t="s">
-        <v>4978</v>
-      </c>
+      <c r="H1575" s="9"/>
       <c r="I1575" s="1" t="s">
         <v>2843</v>
       </c>
@@ -65164,9 +65116,7 @@
       <c r="G1576" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="H1576" s="1" t="s">
-        <v>4957</v>
-      </c>
+      <c r="H1576" s="9"/>
       <c r="I1576" s="1" t="s">
         <v>2847</v>
       </c>
@@ -65199,9 +65149,7 @@
       <c r="G1577" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="H1577" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1577" s="9"/>
       <c r="I1577" s="1" t="s">
         <v>2849</v>
       </c>
